--- a/angular/src/assets/sampleFiles/ContainerWarehouse_Template.xlsx
+++ b/angular/src/assets/sampleFiles/ContainerWarehouse_Template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -37,9 +37,6 @@
 (Forwader)</t>
   </si>
   <si>
-    <t>Case No.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tổng Case nhận (Total  Case Receipt) </t>
   </si>
   <si>
@@ -49,97 +46,64 @@
     <t>SITB659126</t>
   </si>
   <si>
-    <t>CX0028, V2, CX0028, A6, CX0028, V1, CX0028, A8, CX0028, A2, CX0028, A3, CX0028, A5</t>
-  </si>
-  <si>
     <t>TRHU6680727</t>
   </si>
   <si>
     <t>SITB667582</t>
   </si>
   <si>
-    <t>CX0026, A9, CX0026, V1, CX0026, A7, CX0026, A4, CX0026, A6, HK0016, A6, HK0016, V2, CX0026, A1, HK0016, A5, CX0026, V2, HK0016, A2, HK0016, A3</t>
-  </si>
-  <si>
     <t>UETU6016290</t>
   </si>
   <si>
     <t>SITB667550</t>
   </si>
   <si>
-    <t>CX0027, A2, HK0016, A4, HK0016, A1, HK0016, A8, HK0016, A9, HK0016, V1, CX0027, V1, CX0027, A5, CX0027, A3, HK0016, A7, CX0027, A6, CX0027, A8</t>
-  </si>
-  <si>
     <t>MRSU5204390</t>
   </si>
   <si>
     <t>MLTH0108142</t>
   </si>
   <si>
-    <t>MX0020, CA, MV0010, CB, MV0010, CA, MV0010, CE, MV0010, CC, MX0020, CC, MV0010, FA, MX0020, CE, MV0010, FC, MX0020, FA, MV0010, FB, MV0010, TA, MV0010, FD, MV0010, TC, MV0010, TL, MV0010, TF, MX0020, TC, MX0020, CB, MX0020, TL, MX0020, TF, MX0020, FD, MX0020, FB, MX0020, TA, MX0020, FC</t>
-  </si>
-  <si>
     <t>MRSU5443008</t>
   </si>
   <si>
     <t>MLTH0129675</t>
   </si>
   <si>
-    <t>MX0023, TF, MX0023, TL, MV0011, FC, MX0023, FD, MX0023, TA, MX0023, TC, MV0011, CC, MV0011, CB, MV0011, CA, MV0011, FB, MV0011, FA, MV0011, CE, MX0023, FC, MV0011, TF, MV0011, TC, MV0011, TL, MX0023, CB, MX0023, CA, MV0011, TA, MX0023, FA, MX0023, FB, MX0023, CE, MV0011, FD, MX0023, CC</t>
-  </si>
-  <si>
     <t>GCXU5530937</t>
   </si>
   <si>
     <t>MLTH0129517</t>
   </si>
   <si>
-    <t>MV0012, TA, MV0012, FD, MV0012, FC, MV0012, TL, MV0012, TF, MV0012, TC, MV0012, CC, MV0012, CB, MV0012, CA, MV0012, FB, MV0012, FA, MV0012, CE, MX0024, TA, MX0024, FD, MX0024, FC, MX0024, TL, MX0024, TF, MX0024, TC, MX0024, CC, MX0024, CB, MX0024, CA, MX0024, FB, MX0024, FA, MX0024, CE</t>
-  </si>
-  <si>
     <t>CAAU6508235</t>
   </si>
   <si>
     <t>MLTH0108184</t>
   </si>
   <si>
-    <t>MX0021, CE, MX0021, CA, MX0021, FA, MX0021, CC, MX0021, FC, MX0021, CB, MX0022, CB, MX0022, CA, MX0022, CE, MX0022, CC, MX0021, TL, MX0021, TA, MX0021, FD, MX0021, TF, MX0021, TC, MX0022, TF, MX0022, TC, MX0021, FB, MX0022, TL, MX0022, TA, MX0022, FB, MX0022, FA, MX0022, FD, MX0022, FC</t>
-  </si>
-  <si>
     <t>MRSU4721850</t>
   </si>
   <si>
     <t>MLTH0111577</t>
   </si>
   <si>
-    <t>MY0011, FD, MY0011, FC, MY0011, TC, MY0011, TA, MY0011, FA, MY0011, CB, MY0011, CA, MY0011, CE, MY0011, CC, MY0011, FB, MY0011, TL, MY0011, TF</t>
-  </si>
-  <si>
     <t>MRSU5147388</t>
   </si>
   <si>
     <t>MLTH0129671</t>
   </si>
   <si>
-    <t>AC1120, AG1254, AE0700, MX0023, WL, MX0023, WM, BD1670, BE2067, BC1671, BA1671, BB1671, MX0022, WM, MV0011, WM, MX0023, WH, MX0023, WG, MV0011, WL, MV0011, WH, MV0011, WG, MX0023, WJ, MV0011, WJ</t>
-  </si>
-  <si>
     <t>MRSU5343478</t>
   </si>
   <si>
     <t>MLTH0108175</t>
   </si>
   <si>
-    <t>MX0021, WG, MV0010, WM, MX0022, WG, MX0022, WH, MX0022, WJ, MX0021, WM, MX0021, WH, MX0021, WJ, MX0021, WL, MX0022, WL, BB1670, AE0699, AG1253, BC1669, BE2066, BA1670, BC1670, BD1669</t>
-  </si>
-  <si>
     <t>MSKU1419086</t>
   </si>
   <si>
     <t>MLTH0111717</t>
-  </si>
-  <si>
-    <t>BC1672, MX0024, WG, BB1672, BE2068, AA0422, BD1671, BD1672, MV0012, WH, MV0012, WJ, MV0012, WG, BA1672, AC1121, MV0012, WL, MX0024, WL, AG1255, MX0024, WH, MX0024, WJ, MV0012, WM</t>
   </si>
   <si>
     <t>Miền Bắc</t>
@@ -196,18 +160,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Calibri (body)"/>
-    </font>
-    <font>
       <u/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri (body)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -287,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -297,9 +261,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -313,9 +274,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -323,16 +281,19 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G19"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -652,36 +613,32 @@
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="E2" s="10" t="s">
-        <v>42</v>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="13" t="s">
-        <v>41</v>
+    </row>
+    <row r="3" spans="1:6" ht="37.5" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C3" s="11">
         <v>45034</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="B4" s="8"/>
       <c r="C4" s="12"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="90.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:6" ht="90.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,263 +654,227 @@
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="102.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="102.75" customHeight="1">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="135" customHeight="1">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="8">
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="139.5" customHeight="1">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="257.25" customHeight="1">
+      <c r="A12" s="3">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="285" customHeight="1">
+      <c r="A13" s="3">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="261.75" customHeight="1">
+      <c r="A14" s="3">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="287.25" customHeight="1">
+      <c r="A15" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="135" customHeight="1">
-      <c r="A10" s="4">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.3125</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B15" s="4">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="168" customHeight="1">
+      <c r="A16" s="3">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="207.75" customHeight="1">
+      <c r="A17" s="3">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="199.5" customHeight="1">
+      <c r="A18" s="3">
         <v>10</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="B18" s="4">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="191.25" customHeight="1">
+      <c r="A19" s="3">
         <v>11</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="139.5" customHeight="1">
-      <c r="A11" s="4">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="257.25" customHeight="1">
-      <c r="A12" s="4">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="285" customHeight="1">
-      <c r="A13" s="4">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="261.75" customHeight="1">
-      <c r="A14" s="4">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="287.25" customHeight="1">
-      <c r="A15" s="4">
-        <v>7</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="B19" s="4">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="168" customHeight="1">
-      <c r="A16" s="4">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="207.75" customHeight="1">
-      <c r="A17" s="4">
-        <v>9</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="199.5" customHeight="1">
-      <c r="A18" s="4">
-        <v>10</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0.77777777777777801</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="191.25" customHeight="1">
-      <c r="A19" s="4">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="7">
         <v>18</v>
       </c>
     </row>
@@ -961,9 +882,9 @@
   <mergeCells count="3">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E2:G4"/>
+    <mergeCell ref="E2:F4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:G7">
+  <conditionalFormatting sqref="A7:F7">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"DA CO"</formula>
     </cfRule>
